--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -543,10 +543,10 @@
         <v>0.435455</v>
       </c>
       <c r="I2">
-        <v>0.06735911672630875</v>
+        <v>0.06742302838872502</v>
       </c>
       <c r="J2">
-        <v>0.06735911672630873</v>
+        <v>0.06742302838872503</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N2">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O2">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P2">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q2">
-        <v>5.329017537289445</v>
+        <v>11.96534254435055</v>
       </c>
       <c r="R2">
-        <v>47.96115783560501</v>
+        <v>107.688082899155</v>
       </c>
       <c r="S2">
-        <v>0.01402412082393005</v>
+        <v>0.02474429857048204</v>
       </c>
       <c r="T2">
-        <v>0.01402412082393005</v>
+        <v>0.02474429857048204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.435455</v>
       </c>
       <c r="I3">
-        <v>0.06735911672630875</v>
+        <v>0.06742302838872502</v>
       </c>
       <c r="J3">
-        <v>0.06735911672630873</v>
+        <v>0.06742302838872503</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>266.631241</v>
       </c>
       <c r="O3">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P3">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q3">
-        <v>12.90065633885056</v>
+        <v>12.90065633885055</v>
       </c>
       <c r="R3">
         <v>116.105907049655</v>
       </c>
       <c r="S3">
-        <v>0.03395004087302417</v>
+        <v>0.02667852516720624</v>
       </c>
       <c r="T3">
-        <v>0.03395004087302416</v>
+        <v>0.02667852516720624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.435455</v>
       </c>
       <c r="I4">
-        <v>0.06735911672630875</v>
+        <v>0.06742302838872502</v>
       </c>
       <c r="J4">
-        <v>0.06735911672630873</v>
+        <v>0.06742302838872503</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N4">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O4">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P4">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q4">
-        <v>5.300965622957222</v>
+        <v>6.232063245379445</v>
       </c>
       <c r="R4">
-        <v>47.708690606615</v>
+        <v>56.088569208415</v>
       </c>
       <c r="S4">
-        <v>0.01395029794134713</v>
+        <v>0.01288789126447581</v>
       </c>
       <c r="T4">
-        <v>0.01395029794134713</v>
+        <v>0.01288789126447581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.435455</v>
       </c>
       <c r="I5">
-        <v>0.06735911672630875</v>
+        <v>0.06742302838872502</v>
       </c>
       <c r="J5">
-        <v>0.06735911672630873</v>
+        <v>0.06742302838872503</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N5">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q5">
-        <v>2.065112194536111</v>
+        <v>1.504988943998333</v>
       </c>
       <c r="R5">
-        <v>18.586009750825</v>
+        <v>13.544900495985</v>
       </c>
       <c r="S5">
-        <v>0.005434657088007389</v>
+        <v>0.003112313386560928</v>
       </c>
       <c r="T5">
-        <v>0.005434657088007388</v>
+        <v>0.003112313386560929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3560033333333334</v>
+        <v>0.3560033333333333</v>
       </c>
       <c r="H6">
         <v>1.06801</v>
       </c>
       <c r="I6">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="J6">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N6">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O6">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P6">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q6">
-        <v>13.07010832347889</v>
+        <v>29.34655817660111</v>
       </c>
       <c r="R6">
-        <v>117.63097491131</v>
+        <v>264.1190235894099</v>
       </c>
       <c r="S6">
-        <v>0.03439597956428456</v>
+        <v>0.0606886091932818</v>
       </c>
       <c r="T6">
-        <v>0.03439597956428455</v>
+        <v>0.0606886091932818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3560033333333334</v>
+        <v>0.3560033333333333</v>
       </c>
       <c r="H7">
         <v>1.06801</v>
       </c>
       <c r="I7">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="J7">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>266.631241</v>
       </c>
       <c r="O7">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P7">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q7">
-        <v>31.64053685560111</v>
+        <v>31.6405368556011</v>
       </c>
       <c r="R7">
         <v>284.76483170041</v>
       </c>
       <c r="S7">
-        <v>0.08326688900758644</v>
+        <v>0.06543255138608568</v>
       </c>
       <c r="T7">
-        <v>0.0832668890075864</v>
+        <v>0.06543255138608568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3560033333333334</v>
+        <v>0.3560033333333333</v>
       </c>
       <c r="H8">
         <v>1.06801</v>
       </c>
       <c r="I8">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="J8">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N8">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O8">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P8">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q8">
-        <v>13.00130735661445</v>
+        <v>15.28494532545889</v>
       </c>
       <c r="R8">
-        <v>117.01176620953</v>
+        <v>137.56450792913</v>
       </c>
       <c r="S8">
-        <v>0.03421491934720729</v>
+        <v>0.03160922885113918</v>
       </c>
       <c r="T8">
-        <v>0.03421491934720729</v>
+        <v>0.03160922885113918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3560033333333334</v>
+        <v>0.3560033333333333</v>
       </c>
       <c r="H9">
         <v>1.06801</v>
       </c>
       <c r="I9">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="J9">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N9">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q9">
-        <v>5.064956137572223</v>
+        <v>3.691181045296666</v>
       </c>
       <c r="R9">
-        <v>45.58460523815</v>
+        <v>33.22062940767</v>
       </c>
       <c r="S9">
-        <v>0.01332920305556894</v>
+        <v>0.007633353205224277</v>
       </c>
       <c r="T9">
-        <v>0.01332920305556893</v>
+        <v>0.007633353205224277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.653737666666666</v>
+        <v>1.651695</v>
       </c>
       <c r="H10">
-        <v>4.961212999999999</v>
+        <v>4.955085</v>
       </c>
       <c r="I10">
-        <v>0.7674338922990441</v>
+        <v>0.767213228975544</v>
       </c>
       <c r="J10">
-        <v>0.767433892299044</v>
+        <v>0.7672132289755441</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N10">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O10">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P10">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q10">
-        <v>60.71440466461144</v>
+        <v>136.154802129665</v>
       </c>
       <c r="R10">
-        <v>546.4296419815029</v>
+        <v>1225.393219166985</v>
       </c>
       <c r="S10">
-        <v>0.1597791977247993</v>
+        <v>0.2815677915791919</v>
       </c>
       <c r="T10">
-        <v>0.1597791977247992</v>
+        <v>0.2815677915791919</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.653737666666666</v>
+        <v>1.651695</v>
       </c>
       <c r="H11">
-        <v>4.961212999999999</v>
+        <v>4.955085</v>
       </c>
       <c r="I11">
-        <v>0.7674338922990441</v>
+        <v>0.767213228975544</v>
       </c>
       <c r="J11">
-        <v>0.767433892299044</v>
+        <v>0.7672132289755441</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>266.631241</v>
       </c>
       <c r="O11">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P11">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q11">
-        <v>146.9793754505925</v>
+        <v>146.797829201165</v>
       </c>
       <c r="R11">
-        <v>1322.814379055333</v>
+        <v>1321.180462810485</v>
       </c>
       <c r="S11">
-        <v>0.3867985994644196</v>
+        <v>0.303577545046322</v>
       </c>
       <c r="T11">
-        <v>0.3867985994644194</v>
+        <v>0.303577545046322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.653737666666666</v>
+        <v>1.651695</v>
       </c>
       <c r="H12">
-        <v>4.961212999999999</v>
+        <v>4.955085</v>
       </c>
       <c r="I12">
-        <v>0.7674338922990441</v>
+        <v>0.767213228975544</v>
       </c>
       <c r="J12">
-        <v>0.767433892299044</v>
+        <v>0.7672132289755441</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N12">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O12">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P12">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q12">
-        <v>60.39480442564321</v>
+        <v>70.915256699845</v>
       </c>
       <c r="R12">
-        <v>543.5532398307889</v>
+        <v>638.2373102986051</v>
       </c>
       <c r="S12">
-        <v>0.1589381210469155</v>
+        <v>0.1466525741723832</v>
       </c>
       <c r="T12">
-        <v>0.1589381210469155</v>
+        <v>0.1466525741723832</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.653737666666666</v>
+        <v>1.651695</v>
       </c>
       <c r="H13">
-        <v>4.961212999999999</v>
+        <v>4.955085</v>
       </c>
       <c r="I13">
-        <v>0.7674338922990441</v>
+        <v>0.767213228975544</v>
       </c>
       <c r="J13">
-        <v>0.767433892299044</v>
+        <v>0.7672132289755441</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N13">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q13">
-        <v>23.52817504906611</v>
+        <v>17.125416269355</v>
       </c>
       <c r="R13">
-        <v>211.753575441595</v>
+        <v>154.128746424195</v>
       </c>
       <c r="S13">
-        <v>0.06191797406290981</v>
+        <v>0.03541531817764697</v>
       </c>
       <c r="T13">
-        <v>0.0619179740629098</v>
+        <v>0.03541531817764697</v>
       </c>
     </row>
   </sheetData>
